--- a/Proyecto Final/Datos/NASDAQ_100_Hclust_dgroups.xlsx
+++ b/Proyecto Final/Datos/NASDAQ_100_Hclust_dgroups.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,35 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3ac172f78bbb5a5/CIMAT PPE/Semestres/S04/Series de Tiempo/Proyecto de Final de Curso/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E54ECFB0-232D-45BA-8B04-6D50FFAF43FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E610BDA5-0DD9-4F72-B9E5-C2824A5308ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7BB20CA-E7D7-4A01-B6B5-BB53341E6F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C37DEBCD-6202-4B66-AFC1-07A5FD36C9BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="NASDAQ_100_Hclust_groups" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
+    <t>Valor</t>
+  </si>
+  <si>
     <t>euc</t>
   </si>
   <si>
@@ -356,16 +344,13 @@
   </si>
   <si>
     <t>ZS</t>
-  </si>
-  <si>
-    <t>Valor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,16 +358,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -390,17 +675,217 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -709,41 +1194,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4266116B-51F2-4841-80DD-AC72DE8B32FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -766,7 +1249,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -778,30 +1261,30 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -812,7 +1295,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -824,18 +1307,18 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -844,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -858,7 +1341,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -881,7 +1364,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -890,30 +1373,30 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -927,7 +1410,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -936,21 +1419,21 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -962,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -973,7 +1456,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -982,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -996,16 +1479,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1014,47 +1497,47 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1065,7 +1548,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1088,30 +1571,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1120,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1134,7 +1617,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1146,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1157,7 +1640,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1180,59 +1663,59 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1249,7 +1732,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1272,13 +1755,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1287,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1295,7 +1778,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1307,10 +1790,10 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1318,7 +1801,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1327,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1336,12 +1819,12 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1350,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1359,12 +1842,12 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1373,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1382,12 +1865,12 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1410,7 +1893,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1419,21 +1902,21 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1442,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1456,7 +1939,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1479,7 +1962,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1502,19 +1985,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1525,7 +2008,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1534,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1543,12 +2026,12 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1571,7 +2054,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1583,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1594,7 +2077,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1603,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1617,7 +2100,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1640,7 +2123,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1649,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1658,12 +2141,12 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1672,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1686,7 +2169,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1695,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1709,16 +2192,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1732,13 +2215,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1755,36 +2238,36 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1796,12 +2279,12 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1810,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1824,7 +2307,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1833,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1842,27 +2325,27 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1870,7 +2353,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1882,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1893,7 +2376,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1902,21 +2385,21 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1928,18 +2411,18 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1954,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1962,7 +2445,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1971,21 +2454,21 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2003,35 +2486,35 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2040,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2054,7 +2537,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2063,21 +2546,21 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2089,18 +2572,18 @@
         <v>2</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2109,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2118,21 +2601,21 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2146,16 +2629,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2164,12 +2647,12 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2184,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2192,7 +2675,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2204,18 +2687,18 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2238,7 +2721,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2261,7 +2744,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2270,30 +2753,30 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2307,7 +2790,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -2316,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2325,12 +2808,12 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2342,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2353,7 +2836,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2362,21 +2845,21 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2399,7 +2882,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2408,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2422,13 +2905,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2445,19 +2928,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2468,7 +2951,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2491,7 +2974,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2500,21 +2983,21 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2529,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2537,7 +3020,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2560,7 +3043,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2583,7 +3066,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2592,10 +3075,10 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2606,19 +3089,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2629,7 +3112,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2641,18 +3124,18 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2675,7 +3158,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -2684,21 +3167,21 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2707,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2716,12 +3199,12 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2733,18 +3216,18 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2753,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2762,12 +3245,12 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2790,7 +3273,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -2799,10 +3282,10 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -2813,7 +3296,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -2822,33 +3305,33 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -2859,7 +3342,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -2868,21 +3351,21 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -2891,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -2905,7 +3388,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2914,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2923,12 +3406,12 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2940,18 +3423,18 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2960,21 +3443,21 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2986,18 +3469,18 @@
         <v>3</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3006,21 +3489,21 @@
         <v>1</v>
       </c>
       <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
         <v>4</v>
       </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
       <c r="F100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3029,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3043,7 +3526,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3052,19 +3535,22 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>